--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/10/seed4/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.1371</v>
+        <v>-12.06809999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -584,7 +584,7 @@
         <v>-19.24</v>
       </c>
       <c r="B9" t="n">
-        <v>8.646200000000004</v>
+        <v>8.574100000000005</v>
       </c>
       <c r="C9" t="n">
         <v>-13.02</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>4.820700000000005</v>
+        <v>4.833800000000005</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.537699999999997</v>
+        <v>5.631899999999998</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.09529999999999</v>
+        <v>13.14589999999999</v>
       </c>
     </row>
     <row r="22">
